--- a/Employee_Reports35/Roshan Chaminda Udawaththa Udawaththa Kankanamge Q0580.xlsx
+++ b/Employee_Reports35/Roshan Chaminda Udawaththa Udawaththa Kankanamge Q0580.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>-70</v>
+        <v>-71</v>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
@@ -1210,11 +1210,11 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>-150</v>
+        <v>-151</v>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>-173</v>
+        <v>-174</v>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1308,11 +1308,11 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>-83</v>
+        <v>-84</v>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1345,11 +1345,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-83</v>
+        <v>-84</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1382,11 +1382,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1419,11 +1419,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">

--- a/Employee_Reports35/Roshan Chaminda Udawaththa Udawaththa Kankanamge Q0580.xlsx
+++ b/Employee_Reports35/Roshan Chaminda Udawaththa Udawaththa Kankanamge Q0580.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>-71</v>
+        <v>-72</v>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
@@ -1210,11 +1210,11 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>-151</v>
+        <v>-152</v>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>-174</v>
+        <v>-175</v>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1308,11 +1308,11 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>-84</v>
+        <v>-85</v>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1345,11 +1345,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-84</v>
+        <v>-85</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1382,11 +1382,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1419,11 +1419,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
